--- a/autoreplacement.xlsx
+++ b/autoreplacement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python script\m3s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7326BE-5A80-422B-BA60-18487A50524B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5FB580-C6F8-49BE-B969-183C01A3F776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4B54372E-4361-468A-9AEE-530EB0BCFE83}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B54372E-4361-468A-9AEE-530EB0BCFE83}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -36,50 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Auto-replacement</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Rules</t>
   </si>
   <si>
-    <t>A column - only a combination of lowercase Latin letters</t>
-  </si>
-  <si>
-    <t>Word for auto-replacement</t>
-  </si>
-  <si>
-    <t>A1 and B1 must not be changed !!!!</t>
-  </si>
-  <si>
-    <t>rows must be filled for each column</t>
-  </si>
-  <si>
-    <t>script won't work if the rules are broken</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please remove over-segmentation on FC at ss </t>
   </si>
   <si>
-    <t>ruf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please remove under-segmentation on FC at ss </t>
   </si>
   <si>
-    <t>ret</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please remove over-segmentation on TC at ss </t>
   </si>
   <si>
-    <t>rut</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please remove under-segmentation on TC at ss </t>
   </si>
   <si>
@@ -116,9 +86,6 @@
     <t xml:space="preserve">Please correct as shown at </t>
   </si>
   <si>
-    <t>pca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please remove under-segmentation on TB at AS </t>
   </si>
   <si>
@@ -153,6 +120,197 @@
   </si>
   <si>
     <t>cfb</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Replacement</t>
+  </si>
+  <si>
+    <t>A1 (Keyword) and B1 (Replacement) must not be changed !!!!</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please correct Tibial Curve as shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please correct Femoral Curve as shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please adjust point position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best regards, </t>
+  </si>
+  <si>
+    <t>If cell Ax is not empty, Bx must also not be empty, and vice versa</t>
+  </si>
+  <si>
+    <t>Column B must not contain numbers in the values</t>
+  </si>
+  <si>
+    <t>Column A has only a combination of lowercase Latin letters</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please take closer to the bone at </t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>Please trim as shown</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>Please edit curve as shown</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>Please avoid undercut by curve's correction or the trimming</t>
+  </si>
+  <si>
+    <t>Please rebuild using the next parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please adjust glenoid marking as shown </t>
+  </si>
+  <si>
+    <t>Please correct Regisration</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please adjust AP plane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please correct labeling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please translate pins by </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please replace trochlear cylinder </t>
+  </si>
+  <si>
+    <t>Please shift alignment adapter as shown</t>
+  </si>
+  <si>
+    <t>Please increase contact as shown</t>
+  </si>
+  <si>
+    <t>clb</t>
+  </si>
+  <si>
+    <t>trp</t>
+  </si>
+  <si>
+    <t>tro</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>rp</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>Case needs rolled back to correct segmentation.  The case will need to be reapproven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear HCS
+Please update id in gpl for the duplicate case
+Case Id of new case: ***
+Case Id of old case: ***
+Best regards,
+</t>
+  </si>
+  <si>
+    <t>dupl</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>Please recall this case to *** step as has been inadvertently approved</t>
+  </si>
+  <si>
+    <t>Dear CuSE Team
+ The *** pin to metal collision cannot be avoided:
+Please ask the surgeon to extrude the *** hardware before guide usage.
+Best regards,</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Please mark spine hook as contact surface</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>_Designed</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Please make lateral window</t>
+  </si>
+  <si>
+    <t>and rebuild bone model</t>
+  </si>
+  <si>
+    <t>ab</t>
   </si>
 </sst>
 </file>
@@ -212,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -223,6 +381,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -537,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD25EEF-0502-4DFC-99FC-051067302D7D}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,89 +716,89 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,63 +806,263 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
